--- a/real-estate-a-Frame-signs.xlsx
+++ b/real-estate-a-Frame-signs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E44C76A-B937-4D09-8564-EC7B9ED62219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39923CF7-B738-4844-86D2-2910CEA1CA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{A3DCB08E-640F-4E3F-8D64-7BCF92BF9C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Printed Side" sheetId="5" r:id="rId2"/>
+    <sheet name="Display Options " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="12">
   <si>
     <t>Frame + 1 Sign (Single Sided)</t>
   </si>
@@ -66,6 +67,12 @@
   </si>
   <si>
     <t>1 Business Day</t>
+  </si>
+  <si>
+    <t>Sign Only</t>
+  </si>
+  <si>
+    <t>Front and Back</t>
   </si>
 </sst>
 </file>
@@ -419,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE036AF-F827-450C-B51C-238E71B98F6B}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,13 +2352,4620 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403568BC-C7CD-459F-AAE4-90563E82F472}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7BA98E-A446-41A0-B1EB-9BB3EA372E9D}">
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>52.18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>93.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>134.91999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>176.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>217.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>259.02999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>300.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>341.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>383.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>424.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>465.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>507.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>548.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>631.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>672.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>714.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>755.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>796.88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>838.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>879.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>962.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>1003.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>1045.1300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>1086.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>1127.8800000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>1169.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>1210.6300000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>31</v>
+      </c>
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <v>1293.3800000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <v>1334.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="K33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>1376.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>34</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34">
+        <v>1417.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <v>35</v>
+      </c>
+      <c r="K35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35">
+        <v>1458.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>36</v>
+      </c>
+      <c r="K36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <v>1500.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>37</v>
+      </c>
+      <c r="K37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37">
+        <v>1541.63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>38</v>
+      </c>
+      <c r="K38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>39</v>
+      </c>
+      <c r="K39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>1624.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>40</v>
+      </c>
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40">
+        <v>1665.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>41</v>
+      </c>
+      <c r="K41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <v>1707.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>42</v>
+      </c>
+      <c r="K42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>1748.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>43</v>
+      </c>
+      <c r="K43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <v>1789.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>44</v>
+      </c>
+      <c r="K44" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>1831.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>1872.63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>46</v>
+      </c>
+      <c r="K46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>47</v>
+      </c>
+      <c r="K47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47">
+        <v>1955.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>48</v>
+      </c>
+      <c r="K48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48">
+        <v>1996.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>49</v>
+      </c>
+      <c r="K49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>2038.13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
+      </c>
+      <c r="K50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50">
+        <v>2079.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <v>59.93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>162.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58">
+        <v>216.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>265.86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+      <c r="K60" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>318.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61">
+        <v>7</v>
+      </c>
+      <c r="K61" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <v>372.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62">
+        <v>425.12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <v>9</v>
+      </c>
+      <c r="K63" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63">
+        <v>478.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64">
+        <v>531.29999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65">
+        <v>11</v>
+      </c>
+      <c r="K65" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65">
+        <v>584.39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>12</v>
+      </c>
+      <c r="K66" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66">
+        <v>637.48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67">
+        <v>690.57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68">
+        <v>743.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69">
+        <v>15</v>
+      </c>
+      <c r="K69" t="s">
+        <v>9</v>
+      </c>
+      <c r="L69">
+        <v>796.76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70">
+        <v>16</v>
+      </c>
+      <c r="K70" t="s">
+        <v>9</v>
+      </c>
+      <c r="L70">
+        <v>849.85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
+        <v>9</v>
+      </c>
+      <c r="L71">
+        <v>902.94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>9</v>
+      </c>
+      <c r="L72">
+        <v>956.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73">
+        <v>19</v>
+      </c>
+      <c r="K73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L73">
+        <v>1009.12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74">
+        <v>20</v>
+      </c>
+      <c r="K74" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74">
+        <v>1062.21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75">
+        <v>1115.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76">
+        <v>22</v>
+      </c>
+      <c r="K76" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>1168.3900000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>23</v>
+      </c>
+      <c r="K77" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77">
+        <v>1221.48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <v>24</v>
+      </c>
+      <c r="K78" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78">
+        <v>1274.58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>25</v>
+      </c>
+      <c r="K79" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79">
+        <v>1327.67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80">
+        <v>26</v>
+      </c>
+      <c r="K80" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80">
+        <v>1380.76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81">
+        <v>27</v>
+      </c>
+      <c r="K81" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81">
+        <v>1433.85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82">
+        <v>28</v>
+      </c>
+      <c r="K82" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82">
+        <v>1486.94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83">
+        <v>29</v>
+      </c>
+      <c r="K83" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83">
+        <v>1540.03</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84">
+        <v>30</v>
+      </c>
+      <c r="K84" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84">
+        <v>1593.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85">
+        <v>31</v>
+      </c>
+      <c r="K85" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85">
+        <v>1646.21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86">
+        <v>32</v>
+      </c>
+      <c r="K86" t="s">
+        <v>9</v>
+      </c>
+      <c r="L86">
+        <v>1699.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87">
+        <v>33</v>
+      </c>
+      <c r="K87" t="s">
+        <v>9</v>
+      </c>
+      <c r="L87">
+        <v>1752.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88">
+        <v>34</v>
+      </c>
+      <c r="K88" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88">
+        <v>1805.49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89">
+        <v>35</v>
+      </c>
+      <c r="K89" t="s">
+        <v>9</v>
+      </c>
+      <c r="L89">
+        <v>1858.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90">
+        <v>36</v>
+      </c>
+      <c r="K90" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90">
+        <v>1911.67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91">
+        <v>37</v>
+      </c>
+      <c r="K91" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91">
+        <v>1964.76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92">
+        <v>38</v>
+      </c>
+      <c r="K92" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92">
+        <v>2017.85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93">
+        <v>39</v>
+      </c>
+      <c r="K93" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93">
+        <v>2070.94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94">
+        <v>40</v>
+      </c>
+      <c r="K94" t="s">
+        <v>9</v>
+      </c>
+      <c r="L94">
+        <v>2124.0300000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95">
+        <v>41</v>
+      </c>
+      <c r="K95" t="s">
+        <v>9</v>
+      </c>
+      <c r="L95">
+        <v>2177.12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J96">
+        <v>42</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96">
+        <v>2230.2199999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97">
+        <v>43</v>
+      </c>
+      <c r="K97" t="s">
+        <v>9</v>
+      </c>
+      <c r="L97">
+        <v>2283.31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98">
+        <v>44</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98">
+        <v>2336.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99">
+        <v>45</v>
+      </c>
+      <c r="K99" t="s">
+        <v>9</v>
+      </c>
+      <c r="L99">
+        <v>2389.4899999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100">
+        <v>46</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100">
+        <v>2442.58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101">
+        <v>47</v>
+      </c>
+      <c r="K101" t="s">
+        <v>9</v>
+      </c>
+      <c r="L101">
+        <v>2495.67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102">
+        <v>48</v>
+      </c>
+      <c r="K102" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102">
+        <v>2548.7600000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103">
+        <v>49</v>
+      </c>
+      <c r="K103" t="s">
+        <v>9</v>
+      </c>
+      <c r="L103">
+        <v>2601.85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104">
+        <v>50</v>
+      </c>
+      <c r="K104" t="s">
+        <v>9</v>
+      </c>
+      <c r="L104">
+        <v>2654.94</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809E56F0-326B-465D-9889-F4781323F0C8}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>39.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>55.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>94.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>126.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>142.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>158.19999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>174.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>189.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>205.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>221.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>237.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>253.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>268.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>284.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>300.58999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>316.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/real-estate-a-Frame-signs.xlsx
+++ b/real-estate-a-Frame-signs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39923CF7-B738-4844-86D2-2910CEA1CA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9405407F-7357-4789-B8F4-62E212B07EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{A3DCB08E-640F-4E3F-8D64-7BCF92BF9C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A3DCB08E-640F-4E3F-8D64-7BCF92BF9C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE036AF-F827-450C-B51C-238E71B98F6B}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L50"/>
     </sheetView>
   </sheetViews>
@@ -2355,7 +2355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7BA98E-A446-41A0-B1EB-9BB3EA372E9D}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
